--- a/magicbricks.xlsx
+++ b/magicbricks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,13 +435,18 @@
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="50" customWidth="1" min="11" max="11"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
+    <col width="50" customWidth="1" min="13" max="13"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,522 +495,282 @@
           <t>Address</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Operates In</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ticket Size</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>We are a team of professionals working in this field for 21 . We deal in Resale Property renting of all kinds of residential properties in Mumbai .We help you get home loans easily &amp; quickly from reputed banks like HDFC Ltd,IDBI,Axis Bank,ICICI Bank,LIC HFL,Bank of Baroda,Indiabulls,SBI,Citibank,PNB</t>
+          <t>We are a group of experienced professionals who specialize in Resale Property renting of residential properties. We deal in Multistorey Apartment ,Builder Floor Apartment ,Residential House ,Villa ,Residential Plot ,Penthouse ,Studio Apartment ,Commercial Office Space ,Office in IT Park/ SEZ ,Commer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale</t>
+          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aryan Real Estate Agency</t>
+          <t>Reliance Estate Consultants</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4d4235323732373536</t>
+          <t>4d42323934333837</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sangeeta Kaduskar</t>
+          <t>Suresh Toraskar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>35 ( 35 Flats )</t>
+          <t>65 ( 65 Flats )</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>25 ( 25 Flats )</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Godrej Reserve,Godrej Reserve,Linkbay Residences,Silver Bay,Silver Bay,Sunbeam Heights,Sunbeam Heights,Sunbeam Heights,Godrej Reserve,Sunbeam Heights,Sunbeam Heights,Sunbeam Heights,Godrej Reserve,Vista Residences,Vista Residences,Rivali Park Moonrise,Rivali Park Moonrise,Rivali Park Moonrise,Linkbay Residences,Linkbay Residences,Linkbay Residences,Linkbay Residences,Linkbay Residences,Linkbay Residences,Linkbay Residences,Silver Bay,Silver Bay,Silver Bay,Silver Bay,Silver Bay</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N/A,₹4.30 Cr,₹5.13 Cr,₹3.76 Cr,₹7.55 Cr,₹1.27 Cr,₹1.20 Cr,₹2.08 Cr,₹2.62 Cr,₹1.19 Cr,₹3.25 Cr,₹1.93 Cr,₹2.40 Cr,₹2.95 Cr,₹3.30 Cr,₹2.10 Cr,₹1.90 Cr,₹2.95 Cr,₹3.75 Cr,₹4.46 Cr,₹3.33 Cr,₹3.99 Cr,₹5.12 Cr,₹5.48 Cr,₹5.45 Cr,₹3.89 Cr,₹3.70 Cr,₹2.77 Cr,₹3.81 Cr,₹7.57 Cr</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Kandivali East, Mumbai - Western Mumbai, Maharashtra,Kandivali East, Mumbai - Western Mumbai, Maharashtra,N/A,Bandra West, Mumbai - Western Mumbai, Maharashtra,Bandra West, Mumbai - Western Mumbai, Maharashtra,N/A,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,N/A,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Kandivali East, Mumbai - Western Mumbai, Maharashtra,Goregaon West, Mumbai - Western Mumbai, Maharashtra,Goregaon West, Mumbai - Western Mumbai, Maharashtra,Borivali East, Mumbai - Western Mumbai, Maharashtra,Borivali East, Mumbai - Western Mumbai, Maharashtra,Borivali East, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Andheri West, Mumbai - Western Mumbai, Maharashtra,Bandra West, Mumbai - Western Mumbai, Maharashtra,Bandra West, Mumbai - Western Mumbai, Maharashtra,Bandra West, Mumbai - Western Mumbai, Maharashtra,Bandra West, Mumbai - Western Mumbai, Maharashtra,Bandra West, Mumbai - Western Mumbai, Maharashtra</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3Beds
+3Baths
+1Balcony
+Unfurnished,3Beds
+3Baths
+1Balcony
+Unfurnished,4Beds
+4Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,4Beds
+4Baths
+2Balconies
+Unfurnished,N/A,N/A,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,N/A,3Beds
+3Baths
+1Balcony
+Unfurnished,N/A,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,N/A,3Beds
+3Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,3Beds
+3Baths
+1Balcony
+Unfurnished,3Beds
+3Baths
+1Balcony
+Unfurnished,3Beds
+3Baths
+1Balcony
+Unfurnished,3Beds
+2Baths
+1Balcony
+Unfurnished,4Beds
+4Baths
+2Balconies
+Unfurnished,4Beds
+4Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,2Beds
+2Baths
+1Balcony
+Unfurnished,4Beds
+4Baths
+2Balconies
+Unfurnished</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Navkar Estates was founded in 2011. Since then, we at, Navkar Estates, love what we do and pride ourselves on having a unique perspective on the entire process of matching people with homes. We share available properties to clients, ensuring no opportunity is ever missed for them. We ... + more</t>
+          <t>We are a group of experienced professionals who specialize in Resale Property renting of residential properties. We deal in Multistorey Apartment ,Builder Floor Apartment ,Residential House ,Villa ,Residential Plot ,Studio Apartment ,Commercial Office Space ,Office in IT Park/ SEZ ,Commercial Shop ,</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
+          <t>Rent/Lease, Pre-launch, Original Booking, Resale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Navkar Estates</t>
+          <t>Aryan Real Estate Agency</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4d4236303535383435</t>
+          <t>4d4235323732373536</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hemang Daulat</t>
+          <t>Sangeeta Kaduskar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27 ( 26 Flats , 1 Commercial Office Space )</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>We are a group of experienced professionals who specialize in Resale Property renting of residential properties. We deal in Multistorey Apartment ,Builder Floor Apartment ,Residential House ,Villa ,Residential Plot ,Penthouse ,Studio Apartment ,Commercial Office Space ,Office in IT Park/ SEZ ,Commer</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Reliance Estate Consultants</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4d42323934333837</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Suresh Toraskar</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>26 ( 26 Flats )</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>We are property consultants in Mumbai since 2005 . We are expertise in Best Negotiator for Buyers &amp; renting of residential in Mumbai Our experience enables us to respond to client needs in most efficient and effective manner.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Rubaru Global Real Estate Private Limited</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4d423232323332353037</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Azmat Shah</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>21 ( 21 Flats )</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>We are a group of experienced professionals who specialize in New Project Launches renting of residential properties. We deal in Multistorey Apartment ,Builder Floor Apartment ,Residential House ,Villa ,Residential Plot ,Penthouse ,Studio Apartment ,Commercial Office Space ,Office in IT Park/ SEZ ,C</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Property Concierge</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4d423237303737313939</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prakash</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>516 ( 509 Flats , 6 Commercial Office Space , 1 Commercial Shop )</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>We are dealing in all kinds of residential and commercial properties for sale, buy and rent/lease in Mumbai.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Persqrfoot Realty</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4d4239353431383535</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Kishore Chugh</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>264 ( 261 Flats , 3 Villa )</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hitesh Estate Consultancy is one-stop-shop that exclusively deals in real-estate having its office in Mumbai, Maharashtra. As a responsible Real Estate Agent, we offer a wide range of real estate services to clients including buying, selling, renting and leasing of residential, commer... + more</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Hitesh Estate Consultancy</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4d42323037333733</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hitesh Mehta</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>183 ( 183 Flats )</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>We are property consultants in Mumbai since 2013 . We are expertise in New Project Launches &amp; renting of residential in Mumbai Our experience enables us to respond to client needs in most efficient and effective manner.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Resale</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Deals4Property</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4d423333393834373637</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sudhir Kumar</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>149 ( 149 Flats )</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>We are property consultants in Mumbai since 2005 . We are expertise in Best Negotiator for Buyers &amp; renting of residential in Mumbai Our experience enables us to respond to client needs in most efficient and effective manner.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Minerva Properties</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4d4236353037343634</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Joyson Dsouza</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>145 ( 145 Flats )</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Urban Space Realty is a real estate marketing and sales firm having its head office in Kandivali West. The company was established in 1991 and was having the name Conart Estate Consultancy. It has been re-branded now to Urban Space Realty, We operate across Mumbai and have few sole ma... + more</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Conart Estate (Urban Space Realty)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4d423132303535363739</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Karan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>113 ( 112 Flats , 1 House )</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Customer satisfaction ower satisfaction our two office in Thane West Reliable Broker offering pioneering realty services in Thane. The growing number of our satisfied clients reinforces our commitment of ethical dealing, transparent functionitake pleasure in providing professional yet... + more</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale, Others</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Arnav Properties</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4d4235373433323532</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Kiran</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>98 ( 88 Flats , 5 Studio Apartment , 4 Villa , 1 Penthouse )</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>We are property consultants in Mumbai since 2000 . We are expertise in Best Negotiator for Buyers &amp; renting of residential in Mumbai Our experience enables us to respond to client needs in most efficient and effective manner.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pre-launch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Lock And Key Properties Solution LLP</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4d423139373430333637</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Amit Makwana</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>86 ( 86 Flats )</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>We are a group of experienced professionals who specialize in Best Negotiator for Buyers renting of residential properties. We deal in Multistorey Apartment ,Builder Floor Apartment ,Residential House bungalows in Mumbai .With our voluminous experience and in-depth market knowledge, we ensure quick</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Dharti Estate Consultants</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4d4235373035323632</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Sachin Gandhi</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>83 ( 80 Flats , 3 Penthouse )</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>We are a team of professionals working in this field for 37 . We deal in Resale Property renting of all kinds of residential properties in Mumbai .We help you get home loans easily &amp; quickly from reputed banks like etc. We offer our clients unmatched, smarter, faster and reliable Real Estate Servic</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rent/Lease, Pre-launch, Original Booking, Resale</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Hari Om Properties</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4d4233323938343838</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Vinod Singh</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>71 ( 71 Flats )</t>
+          <t>45 ( 45 Flats )</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>110 ( 110 Flats )</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Godrej The Trees,Godrej Platinum,Godrej Platinum,Godrej The Trees,Godrej Platinum,Godrej Platinum,Godrej The Trees,Kalpataru Crest,Godrej Platinum,Godrej The Trees,Godrej Platinum,N/A,Godrej The Trees,Godrej The Trees,Godrej Platinum,Godrej Platinum,Godrej Platinum,Godrej Garden Enclave B Type Tower,Godrej The Trees,Godrej Platinum,Kalpataru Crest,Neelam Senroofs,Kalpataru Crest,Runwal Chestnut,Kalpataru Crest,Godrej Platinum,Godrej The Trees,Runwal Bliss,Godrej Platinum,Godrej Platinum</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>₹1.60 Cr,N/A,₹3.10 Cr,₹1.59 Cr,₹3.10 Cr,₹8.0 Cr,₹9.50 Cr,₹1.90 Cr,N/A,N/A,₹2.95 Cr,₹3.20 Cr,₹1.60 Cr,₹1.70 Cr,₹5.70 Cr,₹2.97 Cr,₹2.95 Cr,₹1.57 Cr,₹1.60 Cr,₹3.80 Cr,₹2.60 Cr,₹2.20 Cr,₹1.85 Cr,₹1.80 Cr,₹2.25 Cr,₹2.87 Cr,₹1.60 Cr,₹1.50 Cr,₹5.25 Cr,₹3.0 Cr</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Opposite Godrej Memorial Hospital, Pirojshanagar, Vikhroli, Mumbai, Maharashtra, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,N/A,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Bhandup West, Mumbai, Bhandup West, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,N/A,N/A,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai -, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Bhandup West, Mumbai, Bhandup West, Mumbai - Central Mumbai, Maharashtra,Nahur East, Mumbai, Nahur East, Mumbai - Central Mumbai, Maharashtra,Bhandup West, Mumbai, Bhandup West, Mumbai - Central Mumbai, Maharashtra,Mulund West, Mumbai, Mulund West, Mumbai - Central Mumbai, Maharashtra,Bhandup West, Mumbai, Bhandup West, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,N/A,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra,Vikhroli East, Mumbai, Vikhroli East, Mumbai - Central Mumbai, Maharashtra</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>N/A,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,2Beds
+2Baths
+1 Covered Parking
+Furnished,N/A,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,4Beds
+5Baths
+3 Covered Parking
+Unfurnished,4Beds
+4Baths
+1Balcony
+3 Covered Parking,N/A,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,N/A,2Beds
+2Baths
+1Balcony
+2 Covered Parking,2Beds
+2Baths
+1Balcony
+1 Covered Parking,N/A,N/A,3Beds
+3Baths
+2 Covered Parking
+Unfurnished,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,2Beds
+2Baths
+1 Covered Parking
+Semi-Furnished,N/A,N/A,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,3Beds
+3Baths
+2 Covered Parking
+Unfurnished,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,N/A,N/A,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,2Beds
+2Baths
+1 Covered Parking
+Unfurnished,N/A,N/A,3Beds
+3Baths
+2 Covered Parking
+Unfurnished,2Beds
+2Baths
+1 Covered Parking
+Unfurnished</t>
         </is>
       </c>
     </row>
